--- a/gazdasag/2019/export6.xlsx
+++ b/gazdasag/2019/export6.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="30">
-  <si>
-    <t>Régió</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="28">
   <si>
     <t>Iparág</t>
   </si>
   <si>
     <t>Év</t>
-  </si>
-  <si>
-    <t>Bevétel</t>
   </si>
   <si>
     <t>Alsó-háromszék</t>
@@ -461,2267 +455,2247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>7.178</v>
+      </c>
+      <c r="G2">
+        <v>15.468</v>
+      </c>
+      <c r="H2">
+        <v>4891.031</v>
+      </c>
+      <c r="I2">
+        <v>4936.400000000001</v>
+      </c>
+      <c r="J2">
+        <v>22.723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1.877</v>
+      </c>
+      <c r="F3">
+        <v>7.149</v>
+      </c>
+      <c r="G3">
+        <v>12.497</v>
+      </c>
+      <c r="H3">
+        <v>6652.196</v>
+      </c>
+      <c r="I3">
+        <v>6698.509</v>
+      </c>
+      <c r="J3">
+        <v>24.79</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="F4">
-        <v>7.178</v>
+        <v>8.234</v>
       </c>
       <c r="G4">
-        <v>15.468</v>
+        <v>11.85</v>
       </c>
       <c r="H4">
-        <v>4891.031</v>
+        <v>6612.331</v>
       </c>
       <c r="I4">
-        <v>4936.400000000001</v>
+        <v>6657.21</v>
       </c>
       <c r="J4">
-        <v>22.723</v>
+        <v>21.065</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.877</v>
+        <v>6.001</v>
       </c>
       <c r="F5">
-        <v>7.149</v>
+        <v>7.836</v>
       </c>
       <c r="G5">
-        <v>12.497</v>
+        <v>13.858</v>
       </c>
       <c r="H5">
-        <v>6652.196</v>
+        <v>6991.084999999999</v>
       </c>
       <c r="I5">
-        <v>6698.509</v>
+        <v>7042.262</v>
       </c>
       <c r="J5">
-        <v>24.79</v>
+        <v>23.482</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>3.73</v>
+        <v>12.352</v>
       </c>
       <c r="F6">
-        <v>8.234</v>
+        <v>9.861000000000001</v>
       </c>
       <c r="G6">
-        <v>11.85</v>
+        <v>22.234</v>
       </c>
       <c r="H6">
-        <v>6612.331</v>
+        <v>7350.388999999999</v>
       </c>
       <c r="I6">
-        <v>6657.21</v>
+        <v>7478.992999999999</v>
       </c>
       <c r="J6">
-        <v>21.065</v>
+        <v>84.157</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>38.035</v>
       </c>
       <c r="E7">
-        <v>6.001</v>
+        <v>73.52500000000001</v>
       </c>
       <c r="F7">
-        <v>7.836</v>
+        <v>35.18900000000001</v>
       </c>
       <c r="G7">
-        <v>13.858</v>
+        <v>116.478</v>
       </c>
       <c r="H7">
-        <v>6991.084999999999</v>
+        <v>62.059</v>
       </c>
       <c r="I7">
-        <v>7042.262</v>
+        <v>411.051</v>
       </c>
       <c r="J7">
-        <v>23.482</v>
+        <v>85.765</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>49.97800000000001</v>
       </c>
       <c r="E8">
-        <v>12.352</v>
+        <v>74.20399999999999</v>
       </c>
       <c r="F8">
-        <v>9.861000000000001</v>
+        <v>39.169</v>
       </c>
       <c r="G8">
-        <v>22.234</v>
+        <v>105.768</v>
       </c>
       <c r="H8">
-        <v>7350.388999999999</v>
+        <v>201.937</v>
       </c>
       <c r="I8">
-        <v>7478.992999999999</v>
+        <v>579.208</v>
       </c>
       <c r="J8">
-        <v>84.157</v>
+        <v>108.152</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9">
-        <v>38.035</v>
+        <v>51.798</v>
       </c>
       <c r="E9">
-        <v>73.52500000000001</v>
+        <v>88.738</v>
       </c>
       <c r="F9">
-        <v>35.18900000000001</v>
+        <v>42.387</v>
       </c>
       <c r="G9">
-        <v>116.478</v>
+        <v>89.209</v>
       </c>
       <c r="H9">
-        <v>62.059</v>
+        <v>147.887</v>
       </c>
       <c r="I9">
-        <v>411.051</v>
+        <v>531.7289999999999</v>
       </c>
       <c r="J9">
-        <v>85.765</v>
+        <v>111.71</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10">
-        <v>49.97800000000001</v>
+        <v>55.062</v>
       </c>
       <c r="E10">
-        <v>74.20399999999999</v>
+        <v>89.512</v>
       </c>
       <c r="F10">
-        <v>39.169</v>
+        <v>50.074</v>
       </c>
       <c r="G10">
-        <v>105.768</v>
+        <v>106.816</v>
       </c>
       <c r="H10">
-        <v>201.937</v>
+        <v>152.752</v>
       </c>
       <c r="I10">
-        <v>579.208</v>
+        <v>578.058</v>
       </c>
       <c r="J10">
-        <v>108.152</v>
+        <v>123.842</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11">
-        <v>51.798</v>
+        <v>59.749</v>
       </c>
       <c r="E11">
-        <v>88.738</v>
+        <v>108.485</v>
       </c>
       <c r="F11">
-        <v>42.387</v>
+        <v>62.434</v>
       </c>
       <c r="G11">
-        <v>89.209</v>
+        <v>120.763</v>
       </c>
       <c r="H11">
-        <v>147.887</v>
+        <v>212.19</v>
       </c>
       <c r="I11">
-        <v>531.7289999999999</v>
+        <v>693.207</v>
       </c>
       <c r="J11">
-        <v>111.71</v>
+        <v>129.586</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>55.062</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>89.512</v>
-      </c>
-      <c r="F12">
-        <v>50.074</v>
+        <v>12.799</v>
       </c>
       <c r="G12">
-        <v>106.816</v>
+        <v>12.683</v>
       </c>
       <c r="H12">
-        <v>152.752</v>
+        <v>3125.193</v>
       </c>
       <c r="I12">
-        <v>578.058</v>
-      </c>
-      <c r="J12">
-        <v>123.842</v>
+        <v>3150.675</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>59.749</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>108.485</v>
-      </c>
-      <c r="F13">
-        <v>62.434</v>
+        <v>15.774</v>
       </c>
       <c r="G13">
-        <v>120.763</v>
+        <v>16.768</v>
       </c>
       <c r="H13">
-        <v>212.19</v>
+        <v>3391.913</v>
       </c>
       <c r="I13">
-        <v>693.207</v>
-      </c>
-      <c r="J13">
-        <v>129.586</v>
+        <v>3424.455</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="E14">
-        <v>12.799</v>
+        <v>18.748</v>
       </c>
       <c r="G14">
-        <v>12.683</v>
+        <v>17.32</v>
       </c>
       <c r="H14">
-        <v>3125.193</v>
+        <v>3404.672</v>
       </c>
       <c r="I14">
-        <v>3150.675</v>
+        <v>3440.739999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>15.774</v>
+        <v>21.752</v>
       </c>
       <c r="G15">
-        <v>16.768</v>
+        <v>17.512</v>
       </c>
       <c r="H15">
-        <v>3391.913</v>
+        <v>3752.202</v>
       </c>
       <c r="I15">
-        <v>3424.455</v>
+        <v>3791.466</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>18.748</v>
+        <v>25.103</v>
       </c>
       <c r="G16">
-        <v>17.32</v>
+        <v>16.903</v>
       </c>
       <c r="H16">
-        <v>3404.672</v>
+        <v>4124.672</v>
       </c>
       <c r="I16">
-        <v>3440.739999999999</v>
+        <v>4166.678000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>294.029</v>
       </c>
       <c r="E17">
-        <v>21.752</v>
+        <v>411.727</v>
+      </c>
+      <c r="F17">
+        <v>167.287</v>
       </c>
       <c r="G17">
-        <v>17.512</v>
+        <v>54.71700000000001</v>
       </c>
       <c r="H17">
-        <v>3752.202</v>
+        <v>1110.066</v>
       </c>
       <c r="I17">
-        <v>3791.466</v>
+        <v>2527.454999999999</v>
+      </c>
+      <c r="J17">
+        <v>489.6290000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>320.773</v>
       </c>
       <c r="E18">
-        <v>25.103</v>
+        <v>505.7850000000001</v>
+      </c>
+      <c r="F18">
+        <v>177.031</v>
       </c>
       <c r="G18">
-        <v>16.903</v>
+        <v>101.06</v>
       </c>
       <c r="H18">
-        <v>4124.672</v>
+        <v>1359.667</v>
       </c>
       <c r="I18">
-        <v>4166.678000000001</v>
+        <v>3142.065</v>
+      </c>
+      <c r="J18">
+        <v>677.749</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19">
-        <v>294.029</v>
+        <v>369.8790000000001</v>
       </c>
       <c r="E19">
-        <v>411.727</v>
+        <v>579.8470000000001</v>
       </c>
       <c r="F19">
-        <v>167.287</v>
+        <v>199.934</v>
       </c>
       <c r="G19">
-        <v>54.71700000000001</v>
+        <v>106.91</v>
       </c>
       <c r="H19">
-        <v>1110.066</v>
+        <v>1566.757</v>
       </c>
       <c r="I19">
-        <v>2527.454999999999</v>
+        <v>3595.781999999999</v>
       </c>
       <c r="J19">
-        <v>489.6290000000001</v>
+        <v>772.4549999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20">
-        <v>320.773</v>
+        <v>403.4209999999999</v>
       </c>
       <c r="E20">
-        <v>505.7850000000001</v>
+        <v>615.854</v>
       </c>
       <c r="F20">
-        <v>177.031</v>
+        <v>230.688</v>
       </c>
       <c r="G20">
-        <v>101.06</v>
+        <v>124.637</v>
       </c>
       <c r="H20">
-        <v>1359.667</v>
+        <v>902.3439999999999</v>
       </c>
       <c r="I20">
-        <v>3142.065</v>
+        <v>3191.025999999999</v>
       </c>
       <c r="J20">
-        <v>677.749</v>
+        <v>914.0819999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>369.8790000000001</v>
+        <v>434.598</v>
       </c>
       <c r="E21">
-        <v>579.8470000000001</v>
+        <v>666.3439999999999</v>
       </c>
       <c r="F21">
-        <v>199.934</v>
+        <v>244.146</v>
       </c>
       <c r="G21">
-        <v>106.91</v>
+        <v>152.758</v>
       </c>
       <c r="H21">
-        <v>1566.757</v>
+        <v>1156.038</v>
       </c>
       <c r="I21">
-        <v>3595.781999999999</v>
+        <v>3701.228</v>
       </c>
       <c r="J21">
-        <v>772.4549999999999</v>
+        <v>1047.344</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>403.4209999999999</v>
+        <v>240.819</v>
       </c>
       <c r="E22">
-        <v>615.854</v>
+        <v>15.385</v>
       </c>
       <c r="F22">
-        <v>230.688</v>
+        <v>60.878</v>
       </c>
       <c r="G22">
-        <v>124.637</v>
+        <v>19.169</v>
       </c>
       <c r="H22">
-        <v>902.3439999999999</v>
+        <v>396.373</v>
       </c>
       <c r="I22">
-        <v>3191.025999999999</v>
+        <v>1051.701</v>
       </c>
       <c r="J22">
-        <v>914.0819999999999</v>
+        <v>319.0770000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>434.598</v>
+        <v>411.53</v>
       </c>
       <c r="E23">
-        <v>666.3439999999999</v>
+        <v>18.52</v>
       </c>
       <c r="F23">
-        <v>244.146</v>
+        <v>54.014</v>
       </c>
       <c r="G23">
-        <v>152.758</v>
+        <v>21.557</v>
       </c>
       <c r="H23">
-        <v>1156.038</v>
+        <v>522.0419999999999</v>
       </c>
       <c r="I23">
-        <v>3701.228</v>
+        <v>1376.881</v>
       </c>
       <c r="J23">
-        <v>1047.344</v>
+        <v>349.218</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24">
-        <v>240.819</v>
+        <v>442.973</v>
       </c>
       <c r="E24">
-        <v>15.385</v>
+        <v>19.449</v>
       </c>
       <c r="F24">
-        <v>60.878</v>
+        <v>68.31</v>
       </c>
       <c r="G24">
-        <v>19.169</v>
+        <v>23.203</v>
       </c>
       <c r="H24">
-        <v>396.373</v>
+        <v>570.9549999999999</v>
       </c>
       <c r="I24">
-        <v>1051.701</v>
+        <v>1499.081</v>
       </c>
       <c r="J24">
-        <v>319.0770000000001</v>
+        <v>374.191</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25">
-        <v>411.53</v>
+        <v>468.6279999999999</v>
       </c>
       <c r="E25">
-        <v>18.52</v>
+        <v>23.135</v>
       </c>
       <c r="F25">
-        <v>54.014</v>
+        <v>93.69999999999999</v>
       </c>
       <c r="G25">
-        <v>21.557</v>
+        <v>22.741</v>
       </c>
       <c r="H25">
-        <v>522.0419999999999</v>
+        <v>596.7550000000001</v>
       </c>
       <c r="I25">
-        <v>1376.881</v>
+        <v>1607.524</v>
       </c>
       <c r="J25">
-        <v>349.218</v>
+        <v>402.565</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26">
-        <v>442.973</v>
+        <v>521.148</v>
       </c>
       <c r="E26">
-        <v>19.449</v>
+        <v>22.242</v>
       </c>
       <c r="F26">
-        <v>68.31</v>
+        <v>108.08</v>
       </c>
       <c r="G26">
-        <v>23.203</v>
+        <v>24.012</v>
       </c>
       <c r="H26">
-        <v>570.9549999999999</v>
+        <v>627.6260000000001</v>
       </c>
       <c r="I26">
-        <v>1499.081</v>
+        <v>1717.694</v>
       </c>
       <c r="J26">
-        <v>374.191</v>
+        <v>414.586</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
       <c r="D27">
-        <v>468.6279999999999</v>
+        <v>11.217</v>
       </c>
       <c r="E27">
-        <v>23.135</v>
+        <v>16.024</v>
       </c>
       <c r="F27">
-        <v>93.69999999999999</v>
+        <v>52.48200000000001</v>
       </c>
       <c r="G27">
-        <v>22.741</v>
+        <v>9.677</v>
       </c>
       <c r="H27">
-        <v>596.7550000000001</v>
+        <v>109.203</v>
       </c>
       <c r="I27">
-        <v>1607.524</v>
-      </c>
-      <c r="J27">
-        <v>402.565</v>
+        <v>198.603</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
       <c r="D28">
-        <v>521.148</v>
+        <v>12.093</v>
       </c>
       <c r="E28">
-        <v>22.242</v>
+        <v>29.983</v>
       </c>
       <c r="F28">
-        <v>108.08</v>
+        <v>59.967</v>
       </c>
       <c r="G28">
-        <v>24.012</v>
+        <v>10.409</v>
       </c>
       <c r="H28">
-        <v>627.6260000000001</v>
+        <v>158.172</v>
       </c>
       <c r="I28">
-        <v>1717.694</v>
-      </c>
-      <c r="J28">
-        <v>414.586</v>
+        <v>270.624</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29">
-        <v>11.217</v>
+        <v>11.779</v>
       </c>
       <c r="E29">
-        <v>16.024</v>
+        <v>64.941</v>
       </c>
       <c r="F29">
-        <v>52.48200000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="G29">
-        <v>9.677</v>
+        <v>9.045</v>
       </c>
       <c r="H29">
-        <v>109.203</v>
+        <v>167.975</v>
       </c>
       <c r="I29">
-        <v>198.603</v>
+        <v>332.84</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30">
-        <v>12.093</v>
+        <v>14.393</v>
       </c>
       <c r="E30">
-        <v>29.983</v>
+        <v>66.009</v>
       </c>
       <c r="F30">
-        <v>59.967</v>
+        <v>83.852</v>
       </c>
       <c r="G30">
-        <v>10.409</v>
+        <v>6.531</v>
       </c>
       <c r="H30">
-        <v>158.172</v>
+        <v>170.137</v>
       </c>
       <c r="I30">
-        <v>270.624</v>
+        <v>340.922</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31">
-        <v>11.779</v>
+        <v>18.064</v>
       </c>
       <c r="E31">
-        <v>64.941</v>
+        <v>69.50700000000001</v>
       </c>
       <c r="F31">
-        <v>79.09999999999999</v>
+        <v>125.306</v>
       </c>
       <c r="G31">
-        <v>9.045</v>
+        <v>9.468999999999999</v>
       </c>
       <c r="H31">
-        <v>167.975</v>
+        <v>168.681</v>
       </c>
       <c r="I31">
-        <v>332.84</v>
+        <v>391.027</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32">
-        <v>14.393</v>
-      </c>
-      <c r="E32">
-        <v>66.009</v>
+        <v>23</v>
       </c>
       <c r="F32">
-        <v>83.852</v>
+        <v>18.905</v>
       </c>
       <c r="G32">
-        <v>6.531</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>170.137</v>
+        <v>117.897</v>
       </c>
       <c r="I32">
-        <v>340.922</v>
+        <v>136.802</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33">
-        <v>18.064</v>
-      </c>
-      <c r="E33">
-        <v>69.50700000000001</v>
+        <v>24</v>
       </c>
       <c r="F33">
-        <v>125.306</v>
+        <v>18.227</v>
       </c>
       <c r="G33">
-        <v>9.468999999999999</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>168.681</v>
+        <v>121.606</v>
       </c>
       <c r="I33">
-        <v>391.027</v>
+        <v>295.616</v>
+      </c>
+      <c r="J33">
+        <v>155.783</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
       </c>
       <c r="F34">
-        <v>18.905</v>
+        <v>24.291</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>117.897</v>
+        <v>112.817</v>
       </c>
       <c r="I34">
-        <v>136.802</v>
+        <v>289.616</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>152.508</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="F35">
-        <v>18.227</v>
+        <v>24.885</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>121.606</v>
+        <v>129.454</v>
       </c>
       <c r="I35">
-        <v>295.616</v>
+        <v>353.164</v>
       </c>
       <c r="J35">
-        <v>155.783</v>
+        <v>198.825</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="F36">
-        <v>24.291</v>
+        <v>28.958</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>112.817</v>
+        <v>149.445</v>
       </c>
       <c r="I36">
-        <v>289.616</v>
+        <v>418.424</v>
       </c>
       <c r="J36">
-        <v>152.508</v>
+        <v>240.021</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>176.532</v>
+      </c>
+      <c r="E37">
+        <v>37.616</v>
       </c>
       <c r="F37">
-        <v>24.885</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>25.482</v>
       </c>
       <c r="H37">
-        <v>129.454</v>
+        <v>207.813</v>
       </c>
       <c r="I37">
-        <v>353.164</v>
+        <v>543.078</v>
       </c>
       <c r="J37">
-        <v>198.825</v>
+        <v>95.63500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>176.125</v>
+      </c>
+      <c r="E38">
+        <v>54.46599999999999</v>
       </c>
       <c r="F38">
-        <v>28.958</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>34.399</v>
       </c>
       <c r="H38">
-        <v>149.445</v>
+        <v>275.265</v>
       </c>
       <c r="I38">
-        <v>418.424</v>
+        <v>638.967</v>
       </c>
       <c r="J38">
-        <v>240.021</v>
+        <v>98.71199999999999</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39">
-        <v>176.532</v>
+        <v>274.749</v>
       </c>
       <c r="E39">
-        <v>37.616</v>
+        <v>69.10900000000001</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>25.482</v>
+        <v>31.674</v>
       </c>
       <c r="H39">
-        <v>207.813</v>
+        <v>308.184</v>
       </c>
       <c r="I39">
-        <v>543.078</v>
+        <v>793.0780000000002</v>
       </c>
       <c r="J39">
-        <v>95.63500000000001</v>
+        <v>109.362</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
       </c>
       <c r="D40">
-        <v>176.125</v>
+        <v>291.856</v>
       </c>
       <c r="E40">
-        <v>54.46599999999999</v>
+        <v>70.98099999999999</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>34.399</v>
+        <v>28.069</v>
       </c>
       <c r="H40">
-        <v>275.265</v>
+        <v>366.711</v>
       </c>
       <c r="I40">
-        <v>638.967</v>
+        <v>888.2410000000002</v>
       </c>
       <c r="J40">
-        <v>98.71199999999999</v>
+        <v>130.624</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
       </c>
       <c r="D41">
-        <v>274.749</v>
+        <v>320.032</v>
       </c>
       <c r="E41">
-        <v>69.10900000000001</v>
+        <v>77.24199999999999</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>31.674</v>
+        <v>41.575</v>
       </c>
       <c r="H41">
-        <v>308.184</v>
+        <v>425.59</v>
       </c>
       <c r="I41">
-        <v>793.0780000000002</v>
+        <v>1003.985</v>
       </c>
       <c r="J41">
-        <v>109.362</v>
+        <v>139.546</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>291.856</v>
+        <v>163.368</v>
       </c>
       <c r="E42">
-        <v>70.98099999999999</v>
+        <v>126.203</v>
       </c>
       <c r="F42">
+        <v>55.72</v>
+      </c>
+      <c r="G42">
+        <v>16.963</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>28.069</v>
-      </c>
-      <c r="H42">
-        <v>366.711</v>
-      </c>
       <c r="I42">
-        <v>888.2410000000002</v>
+        <v>408.519</v>
       </c>
       <c r="J42">
-        <v>130.624</v>
+        <v>46.265</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>320.032</v>
+        <v>209.189</v>
       </c>
       <c r="E43">
-        <v>77.24199999999999</v>
+        <v>107.101</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>43.675</v>
       </c>
       <c r="G43">
-        <v>41.575</v>
+        <v>18.454</v>
       </c>
       <c r="H43">
-        <v>425.59</v>
+        <v>35.279</v>
       </c>
       <c r="I43">
-        <v>1003.985</v>
+        <v>487.7200000000001</v>
       </c>
       <c r="J43">
-        <v>139.546</v>
+        <v>74.02200000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
       <c r="D44">
-        <v>163.368</v>
+        <v>223.979</v>
       </c>
       <c r="E44">
-        <v>126.203</v>
+        <v>117.838</v>
       </c>
       <c r="F44">
-        <v>55.72</v>
+        <v>55.63799999999999</v>
       </c>
       <c r="G44">
-        <v>16.963</v>
+        <v>20.325</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>36.45</v>
       </c>
       <c r="I44">
-        <v>408.519</v>
+        <v>560.8479999999998</v>
       </c>
       <c r="J44">
-        <v>46.265</v>
+        <v>106.618</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>26</v>
       </c>
       <c r="D45">
-        <v>209.189</v>
+        <v>253.899</v>
       </c>
       <c r="E45">
-        <v>107.101</v>
+        <v>152.553</v>
       </c>
       <c r="F45">
-        <v>43.675</v>
+        <v>71.874</v>
       </c>
       <c r="G45">
-        <v>18.454</v>
+        <v>24.933</v>
       </c>
       <c r="H45">
-        <v>35.279</v>
+        <v>28.61</v>
       </c>
       <c r="I45">
-        <v>487.7200000000001</v>
+        <v>636.9609999999998</v>
       </c>
       <c r="J45">
-        <v>74.02200000000001</v>
+        <v>105.092</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46">
-        <v>223.979</v>
+        <v>299.944</v>
       </c>
       <c r="E46">
-        <v>117.838</v>
+        <v>175.049</v>
       </c>
       <c r="F46">
-        <v>55.63799999999999</v>
+        <v>84.559</v>
       </c>
       <c r="G46">
-        <v>20.325</v>
+        <v>27.88</v>
       </c>
       <c r="H46">
-        <v>36.45</v>
+        <v>272.486</v>
       </c>
       <c r="I46">
-        <v>560.8479999999998</v>
+        <v>962.803</v>
       </c>
       <c r="J46">
-        <v>106.618</v>
+        <v>102.885</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>253.899</v>
+        <v>36.165</v>
       </c>
       <c r="E47">
-        <v>152.553</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>71.874</v>
+        <v>241.975</v>
       </c>
       <c r="G47">
-        <v>24.933</v>
+        <v>15.789</v>
       </c>
       <c r="H47">
-        <v>28.61</v>
+        <v>39.695</v>
       </c>
       <c r="I47">
-        <v>636.9609999999998</v>
+        <v>636.0029999999999</v>
       </c>
       <c r="J47">
-        <v>105.092</v>
+        <v>302.379</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>299.944</v>
+        <v>28.413</v>
       </c>
       <c r="E48">
-        <v>175.049</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>84.559</v>
+        <v>239.573</v>
       </c>
       <c r="G48">
-        <v>27.88</v>
+        <v>10.338</v>
       </c>
       <c r="H48">
-        <v>272.486</v>
+        <v>45.71</v>
       </c>
       <c r="I48">
-        <v>962.803</v>
+        <v>651.193</v>
       </c>
       <c r="J48">
-        <v>102.885</v>
+        <v>327.159</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
       </c>
       <c r="D49">
-        <v>36.165</v>
+        <v>34.972</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>241.975</v>
+        <v>242.869</v>
       </c>
       <c r="G49">
-        <v>15.789</v>
+        <v>22.692</v>
       </c>
       <c r="H49">
-        <v>39.695</v>
+        <v>53.421</v>
       </c>
       <c r="I49">
-        <v>636.0029999999999</v>
+        <v>679.537</v>
       </c>
       <c r="J49">
-        <v>302.379</v>
+        <v>325.583</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
       </c>
       <c r="D50">
-        <v>28.413</v>
+        <v>24.476</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>239.573</v>
+        <v>256.15</v>
       </c>
       <c r="G50">
-        <v>10.338</v>
+        <v>36.916</v>
       </c>
       <c r="H50">
-        <v>45.71</v>
+        <v>54.026</v>
       </c>
       <c r="I50">
-        <v>651.193</v>
+        <v>713.8049999999998</v>
       </c>
       <c r="J50">
-        <v>327.159</v>
+        <v>342.237</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51">
-        <v>34.972</v>
+        <v>24.994</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>242.869</v>
+        <v>280.298</v>
       </c>
       <c r="G51">
-        <v>22.692</v>
+        <v>31.342</v>
       </c>
       <c r="H51">
-        <v>53.421</v>
+        <v>54.915</v>
       </c>
       <c r="I51">
-        <v>679.537</v>
+        <v>748.966</v>
       </c>
       <c r="J51">
-        <v>325.583</v>
+        <v>357.417</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52">
-        <v>24.476</v>
+        <v>23</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>256.15</v>
+        <v>72.76300000000001</v>
       </c>
       <c r="G52">
-        <v>36.916</v>
+        <v>0.635</v>
       </c>
       <c r="H52">
-        <v>54.026</v>
+        <v>124.497</v>
       </c>
       <c r="I52">
-        <v>713.8049999999998</v>
-      </c>
-      <c r="J52">
-        <v>342.237</v>
+        <v>197.895</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53">
-        <v>24.994</v>
+        <v>24</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7.419</v>
       </c>
       <c r="F53">
-        <v>280.298</v>
+        <v>75.125</v>
       </c>
       <c r="G53">
-        <v>31.342</v>
+        <v>1.213</v>
       </c>
       <c r="H53">
-        <v>54.915</v>
+        <v>130.638</v>
       </c>
       <c r="I53">
-        <v>748.966</v>
-      </c>
-      <c r="J53">
-        <v>357.417</v>
+        <v>214.395</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>8.917</v>
       </c>
       <c r="F54">
-        <v>72.76300000000001</v>
+        <v>86.88599999999998</v>
       </c>
       <c r="G54">
-        <v>0.635</v>
+        <v>3.766</v>
       </c>
       <c r="H54">
-        <v>124.497</v>
+        <v>162.919</v>
       </c>
       <c r="I54">
-        <v>197.895</v>
+        <v>262.488</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
       </c>
       <c r="E55">
-        <v>7.419</v>
+        <v>9.500999999999999</v>
       </c>
       <c r="F55">
-        <v>75.125</v>
+        <v>92.44199999999999</v>
       </c>
       <c r="G55">
-        <v>1.213</v>
+        <v>5.924</v>
       </c>
       <c r="H55">
-        <v>130.638</v>
+        <v>178.238</v>
       </c>
       <c r="I55">
-        <v>214.395</v>
+        <v>286.105</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="E56">
-        <v>8.917</v>
+        <v>11.217</v>
       </c>
       <c r="F56">
-        <v>86.88599999999998</v>
+        <v>106.566</v>
       </c>
       <c r="G56">
-        <v>3.766</v>
+        <v>7.53</v>
       </c>
       <c r="H56">
-        <v>162.919</v>
+        <v>194.572</v>
       </c>
       <c r="I56">
-        <v>262.488</v>
+        <v>319.8849999999999</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E57">
-        <v>9.500999999999999</v>
-      </c>
-      <c r="F57">
-        <v>92.44199999999999</v>
+        <v>132.314</v>
       </c>
       <c r="G57">
-        <v>5.924</v>
-      </c>
-      <c r="H57">
-        <v>178.238</v>
+        <v>578.061</v>
       </c>
       <c r="I57">
-        <v>286.105</v>
+        <v>710.375</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>11.217</v>
-      </c>
-      <c r="F58">
-        <v>106.566</v>
+        <v>160.725</v>
       </c>
       <c r="G58">
-        <v>7.53</v>
-      </c>
-      <c r="H58">
-        <v>194.572</v>
+        <v>650.716</v>
       </c>
       <c r="I58">
-        <v>319.8849999999999</v>
+        <v>811.441</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
       </c>
       <c r="E59">
-        <v>132.314</v>
+        <v>180.112</v>
       </c>
       <c r="G59">
-        <v>578.061</v>
+        <v>714.573</v>
       </c>
       <c r="I59">
-        <v>710.375</v>
+        <v>894.6850000000001</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>26</v>
       </c>
       <c r="E60">
-        <v>160.725</v>
+        <v>185.963</v>
       </c>
       <c r="G60">
-        <v>650.716</v>
+        <v>748.6849999999999</v>
       </c>
       <c r="I60">
-        <v>811.441</v>
+        <v>934.6479999999999</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="E61">
-        <v>180.112</v>
+        <v>206.662</v>
       </c>
       <c r="G61">
-        <v>714.573</v>
+        <v>847.8439999999999</v>
       </c>
       <c r="I61">
-        <v>894.6850000000001</v>
+        <v>1054.506</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>575.5</v>
       </c>
       <c r="E62">
-        <v>185.963</v>
+        <v>123.673</v>
+      </c>
+      <c r="F62">
+        <v>72.36699999999999</v>
       </c>
       <c r="G62">
-        <v>748.6849999999999</v>
+        <v>88.87599999999999</v>
+      </c>
+      <c r="H62">
+        <v>397.875</v>
       </c>
       <c r="I62">
-        <v>934.6479999999999</v>
+        <v>1570.268</v>
+      </c>
+      <c r="J62">
+        <v>311.977</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>670.5730000000001</v>
       </c>
       <c r="E63">
-        <v>206.662</v>
+        <v>132.72</v>
+      </c>
+      <c r="F63">
+        <v>84.63499999999999</v>
       </c>
       <c r="G63">
-        <v>847.8439999999999</v>
+        <v>105.744</v>
+      </c>
+      <c r="H63">
+        <v>431.4689999999999</v>
       </c>
       <c r="I63">
-        <v>1054.506</v>
+        <v>1731.097</v>
+      </c>
+      <c r="J63">
+        <v>305.956</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
         <v>25</v>
       </c>
       <c r="D64">
-        <v>575.5</v>
+        <v>750.616</v>
       </c>
       <c r="E64">
-        <v>123.673</v>
+        <v>154.178</v>
       </c>
       <c r="F64">
-        <v>72.36699999999999</v>
+        <v>91.971</v>
       </c>
       <c r="G64">
-        <v>88.87599999999999</v>
+        <v>117.697</v>
       </c>
       <c r="H64">
-        <v>397.875</v>
+        <v>467.29</v>
       </c>
       <c r="I64">
-        <v>1570.268</v>
+        <v>1884.581</v>
       </c>
       <c r="J64">
-        <v>311.977</v>
+        <v>302.829</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
       </c>
       <c r="D65">
-        <v>670.5730000000001</v>
+        <v>835.1899999999999</v>
       </c>
       <c r="E65">
-        <v>132.72</v>
+        <v>166.305</v>
       </c>
       <c r="F65">
-        <v>84.63499999999999</v>
+        <v>116.019</v>
       </c>
       <c r="G65">
-        <v>105.744</v>
+        <v>132.405</v>
       </c>
       <c r="H65">
-        <v>431.4689999999999</v>
+        <v>530.8150000000001</v>
       </c>
       <c r="I65">
-        <v>1731.097</v>
+        <v>2098.684999999999</v>
       </c>
       <c r="J65">
-        <v>305.956</v>
+        <v>317.951</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
       </c>
       <c r="D66">
-        <v>750.616</v>
+        <v>899.4020000000002</v>
       </c>
       <c r="E66">
-        <v>154.178</v>
+        <v>229.866</v>
       </c>
       <c r="F66">
-        <v>91.971</v>
+        <v>99.614</v>
       </c>
       <c r="G66">
-        <v>117.697</v>
+        <v>154.033</v>
       </c>
       <c r="H66">
-        <v>467.29</v>
+        <v>583.6990000000001</v>
       </c>
       <c r="I66">
-        <v>1884.581</v>
+        <v>2322.19</v>
       </c>
       <c r="J66">
-        <v>302.829</v>
+        <v>355.576</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
         <v>23</v>
       </c>
-      <c r="C67" t="s">
-        <v>28</v>
-      </c>
       <c r="D67">
-        <v>835.1899999999999</v>
+        <v>160.417</v>
       </c>
       <c r="E67">
-        <v>166.305</v>
+        <v>165.91</v>
       </c>
       <c r="F67">
-        <v>116.019</v>
+        <v>8.24</v>
       </c>
       <c r="G67">
-        <v>132.405</v>
+        <v>61.349</v>
       </c>
       <c r="H67">
-        <v>530.8150000000001</v>
+        <v>171.091</v>
       </c>
       <c r="I67">
-        <v>2098.684999999999</v>
+        <v>709.6129999999999</v>
       </c>
       <c r="J67">
-        <v>317.951</v>
+        <v>142.606</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>899.4020000000002</v>
+        <v>236.873</v>
       </c>
       <c r="E68">
-        <v>229.866</v>
+        <v>120.571</v>
       </c>
       <c r="F68">
-        <v>99.614</v>
+        <v>10.185</v>
       </c>
       <c r="G68">
-        <v>154.033</v>
+        <v>67.13300000000001</v>
       </c>
       <c r="H68">
-        <v>583.6990000000001</v>
+        <v>198.571</v>
       </c>
       <c r="I68">
-        <v>2322.19</v>
+        <v>803.2149999999998</v>
       </c>
       <c r="J68">
-        <v>355.576</v>
+        <v>169.882</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>25</v>
       </c>
       <c r="D69">
-        <v>160.417</v>
+        <v>181.498</v>
       </c>
       <c r="E69">
-        <v>165.91</v>
+        <v>85.979</v>
       </c>
       <c r="F69">
-        <v>8.24</v>
+        <v>13.535</v>
       </c>
       <c r="G69">
-        <v>61.349</v>
+        <v>63.172</v>
       </c>
       <c r="H69">
-        <v>171.091</v>
+        <v>140.549</v>
       </c>
       <c r="I69">
-        <v>709.6129999999999</v>
+        <v>639.269</v>
       </c>
       <c r="J69">
-        <v>142.606</v>
+        <v>154.536</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
       </c>
       <c r="D70">
-        <v>236.873</v>
+        <v>175.785</v>
       </c>
       <c r="E70">
-        <v>120.571</v>
+        <v>94.569</v>
       </c>
       <c r="F70">
-        <v>10.185</v>
+        <v>8.929</v>
       </c>
       <c r="G70">
-        <v>67.13300000000001</v>
+        <v>85.37899999999999</v>
       </c>
       <c r="H70">
-        <v>198.571</v>
+        <v>180.315</v>
       </c>
       <c r="I70">
-        <v>803.2149999999998</v>
+        <v>715.7939999999999</v>
       </c>
       <c r="J70">
-        <v>169.882</v>
+        <v>170.817</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>27</v>
       </c>
       <c r="D71">
-        <v>181.498</v>
+        <v>195.348</v>
       </c>
       <c r="E71">
-        <v>85.979</v>
+        <v>128.38</v>
       </c>
       <c r="F71">
-        <v>13.535</v>
+        <v>10.192</v>
       </c>
       <c r="G71">
-        <v>63.172</v>
+        <v>106.137</v>
       </c>
       <c r="H71">
-        <v>140.549</v>
+        <v>242.001</v>
       </c>
       <c r="I71">
-        <v>639.269</v>
+        <v>892.7799999999997</v>
       </c>
       <c r="J71">
-        <v>154.536</v>
+        <v>210.722</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>175.785</v>
+        <v>1696.082</v>
       </c>
       <c r="E72">
-        <v>94.569</v>
+        <v>1115.176</v>
       </c>
       <c r="F72">
-        <v>8.929</v>
+        <v>792.984</v>
       </c>
       <c r="G72">
-        <v>85.37899999999999</v>
+        <v>1015.347</v>
       </c>
       <c r="H72">
-        <v>180.315</v>
+        <v>10752.793</v>
       </c>
       <c r="I72">
-        <v>715.7939999999999</v>
+        <v>17188.438</v>
       </c>
       <c r="J72">
-        <v>170.817</v>
+        <v>1816.056</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
         <v>24</v>
       </c>
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
       <c r="D73">
-        <v>195.348</v>
+        <v>2115.547</v>
       </c>
       <c r="E73">
-        <v>128.38</v>
+        <v>1229.145</v>
       </c>
       <c r="F73">
-        <v>10.192</v>
+        <v>808.7499999999999</v>
       </c>
       <c r="G73">
-        <v>106.137</v>
+        <v>1156.056</v>
       </c>
       <c r="H73">
-        <v>242.001</v>
+        <v>13524.465</v>
       </c>
       <c r="I73">
-        <v>892.7799999999997</v>
+        <v>21125.38599999999</v>
       </c>
       <c r="J73">
-        <v>210.722</v>
+        <v>2291.423</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>25</v>
       </c>
       <c r="D74">
-        <v>1696.082</v>
+        <v>2342.243</v>
       </c>
       <c r="E74">
-        <v>1115.176</v>
+        <v>1391.586</v>
       </c>
       <c r="F74">
-        <v>792.984</v>
+        <v>913.155</v>
       </c>
       <c r="G74">
-        <v>1015.347</v>
+        <v>1231.436</v>
       </c>
       <c r="H74">
-        <v>10752.793</v>
+        <v>13752.207</v>
       </c>
       <c r="I74">
-        <v>17188.438</v>
+        <v>22061.484</v>
       </c>
       <c r="J74">
-        <v>1816.056</v>
+        <v>2430.857</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>26</v>
       </c>
       <c r="D75">
-        <v>2115.547</v>
+        <v>2522.71</v>
       </c>
       <c r="E75">
-        <v>1229.145</v>
+        <v>1502.135</v>
       </c>
       <c r="F75">
-        <v>808.7499999999999</v>
+        <v>1036.449</v>
       </c>
       <c r="G75">
-        <v>1156.056</v>
+        <v>1354.406</v>
       </c>
       <c r="H75">
-        <v>13524.465</v>
+        <v>14033.444</v>
       </c>
       <c r="I75">
-        <v>21125.38599999999</v>
+        <v>23178.661</v>
       </c>
       <c r="J75">
-        <v>2291.423</v>
+        <v>2729.517</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76">
-        <v>2342.243</v>
+        <v>2773.279</v>
       </c>
       <c r="E76">
-        <v>1391.586</v>
+        <v>1732.449</v>
       </c>
       <c r="F76">
-        <v>913.155</v>
+        <v>1160.014</v>
       </c>
       <c r="G76">
-        <v>1231.436</v>
+        <v>1562.48</v>
       </c>
       <c r="H76">
-        <v>13752.207</v>
+        <v>15562.304</v>
       </c>
       <c r="I76">
-        <v>22061.484</v>
+        <v>25872.36599999999</v>
       </c>
       <c r="J76">
-        <v>2430.857</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>73</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77">
-        <v>2522.71</v>
-      </c>
-      <c r="E77">
-        <v>1502.135</v>
-      </c>
-      <c r="F77">
-        <v>1036.449</v>
-      </c>
-      <c r="G77">
-        <v>1354.406</v>
-      </c>
-      <c r="H77">
-        <v>14033.444</v>
-      </c>
-      <c r="I77">
-        <v>23178.661</v>
-      </c>
-      <c r="J77">
-        <v>2729.517</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>74</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78">
-        <v>2773.279</v>
-      </c>
-      <c r="E78">
-        <v>1732.449</v>
-      </c>
-      <c r="F78">
-        <v>1160.014</v>
-      </c>
-      <c r="G78">
-        <v>1562.48</v>
-      </c>
-      <c r="H78">
-        <v>15562.304</v>
-      </c>
-      <c r="I78">
-        <v>25872.36599999999</v>
-      </c>
-      <c r="J78">
         <v>3081.84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>